--- a/算法总结/题目索引.xlsx
+++ b/算法总结/题目索引.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="248">
   <si>
     <t>做题时间</t>
   </si>
@@ -751,18 +751,115 @@
   <si>
     <t>计数dp</t>
   </si>
+  <si>
+    <t>2376. 统计特殊整数</t>
+  </si>
+  <si>
+    <t>数位dp</t>
+  </si>
+  <si>
+    <t>1. 应该计算上界，也就是前面是否已经限制了
+2. 注意前面都是0的情况。也就是not is_num的情况，不可以从1开始，并且需要特殊计算仍旧not is_num的的情况。</t>
+  </si>
+  <si>
+    <t>1012. 至少有 1 位重复的数字</t>
+  </si>
+  <si>
+    <t>600. 不含连续1的非负整数</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/non-negative-integers-without-consecutive-ones/solution/shu-wei-dp-by-man-qian-shu-xiao-ming-felv/</t>
+  </si>
+  <si>
+    <t>模板修改</t>
+  </si>
+  <si>
+    <t>6159. 删除操作后的最大子段和</t>
+  </si>
+  <si>
+    <t>思维 + 并查集</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/maximum-segment-sum-after-removals/solution/si-wei-bingcha-by-man-qian-shu-xiao-ming-q1c4/</t>
+  </si>
+  <si>
+    <t>思维</t>
+  </si>
+  <si>
+    <t>2334. 元素值大于变化阈值的子数组</t>
+  </si>
+  <si>
+    <t>并查集 + 思维</t>
+  </si>
+  <si>
+    <t>2213. 由单个字符重复的最长子字符串</t>
+  </si>
+  <si>
+    <t>线段树 + 思维</t>
+  </si>
+  <si>
+    <t>洛谷 P4513 小白逛公园</t>
+  </si>
+  <si>
+    <t>输出二叉树</t>
+  </si>
+  <si>
+    <t>带区间的树</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/print-binary-tree/submissions/</t>
+  </si>
+  <si>
+    <t>2022/8/28(弄明白了细节)</t>
+  </si>
+  <si>
+    <t>2386. 找出数组的第 K 大和</t>
+  </si>
+  <si>
+    <t>转化 + 二路归并</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/ip-to-cidr/solution/er-jin-zhi-ji-suan-trieshu-bian-li-by-in-xrw0/</t>
+  </si>
+  <si>
+    <t>Trie树遍历 + 二进制问题</t>
+  </si>
+  <si>
+    <t>2022/9/3(思考为什么)</t>
+  </si>
+  <si>
+    <t>646. 最长数对链</t>
+  </si>
+  <si>
+    <t>最长上升子序列模型</t>
+  </si>
+  <si>
+    <t>354. 俄罗斯套娃信封问题</t>
+  </si>
+  <si>
+    <t>828. 统计子串中的唯一字符</t>
+  </si>
+  <si>
+    <t>简单计数，闭区间的计算</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/count-unique-characters-of-all-substrings-of-a-given-string/solution/tong-ji-by-man-qian-shu-xiao-ming-70jt/</t>
+  </si>
+  <si>
+    <t>注意闭区间怎么统计</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -836,22 +933,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF262626"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -879,9 +982,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -895,16 +1018,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -926,21 +1049,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -957,18 +1065,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -981,7 +1090,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,25 +1150,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,31 +1174,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,37 +1192,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,19 +1246,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,37 +1264,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,8 +1286,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1186,10 +1297,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1210,35 +1319,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1258,6 +1343,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1272,6 +1366,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1280,10 +1389,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1292,16 +1401,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1310,119 +1419,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1477,8 +1586,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1828,10 +1940,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -3274,7 +3386,7 @@
       <c r="A81" s="3">
         <v>44782</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="17" t="s">
         <v>214</v>
       </c>
       <c r="C81" t="s">
@@ -3285,6 +3397,185 @@
       </c>
       <c r="E81" t="s">
         <v>215</v>
+      </c>
+    </row>
+    <row r="83" ht="42" spans="1:5">
+      <c r="A83" s="3">
+        <v>44789</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C83" t="s">
+        <v>217</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="84" ht="17" spans="1:4">
+      <c r="A84" s="3">
+        <v>44789</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C84" t="s">
+        <v>217</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" ht="17" spans="1:5">
+      <c r="A85" s="3">
+        <v>44789</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C85" t="s">
+        <v>217</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E85" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="86" ht="17" spans="1:5">
+      <c r="A86" s="3">
+        <v>44794</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C86" t="s">
+        <v>224</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E86" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="87" ht="15.5" spans="2:4">
+      <c r="B87" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C87" t="s">
+        <v>228</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" ht="17" spans="2:4">
+      <c r="B88" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C88" t="s">
+        <v>230</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" ht="15.5" spans="2:4">
+      <c r="B89" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="C89" t="s">
+        <v>230</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="3">
+        <v>44795</v>
+      </c>
+      <c r="B92" t="s">
+        <v>232</v>
+      </c>
+      <c r="C92" t="s">
+        <v>233</v>
+      </c>
+      <c r="D92" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="95" ht="17" spans="1:4">
+      <c r="A95" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C95" t="s">
+        <v>237</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="3">
+        <v>44806</v>
+      </c>
+      <c r="B96" t="s">
+        <v>238</v>
+      </c>
+      <c r="C96" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="97" ht="17" spans="1:4">
+      <c r="A97" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C97" t="s">
+        <v>242</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" ht="17" spans="2:4">
+      <c r="B98" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C98" t="s">
+        <v>242</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="3">
+        <v>44810</v>
+      </c>
+      <c r="B100" t="s">
+        <v>244</v>
+      </c>
+      <c r="C100" t="s">
+        <v>245</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E100" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -3304,6 +3595,19 @@
     <hyperlink ref="B79" r:id="rId13" display="847. 访问所有节点的最短路径" tooltip="https://leetcode.cn/problems/shortest-path-visiting-all-nodes/"/>
     <hyperlink ref="B80" r:id="rId14" display="761. 特殊的二进制序列" tooltip="https://leetcode.cn/problems/special-binary-string/"/>
     <hyperlink ref="B81" r:id="rId15" display="2318. 不同骰子序列的数目" tooltip="https://leetcode.cn/problems/number-of-distinct-roll-sequences/"/>
+    <hyperlink ref="B83" r:id="rId16" display="2376. 统计特殊整数" tooltip="https://leetcode.cn/problems/count-special-integers/"/>
+    <hyperlink ref="B84" r:id="rId17" display="1012. 至少有 1 位重复的数字" tooltip="https://leetcode.cn/problems/numbers-with-repeated-digits/"/>
+    <hyperlink ref="B85" r:id="rId18" display="600. 不含连续1的非负整数" tooltip="https://leetcode.cn/problems/non-negative-integers-without-consecutive-ones/"/>
+    <hyperlink ref="D85" r:id="rId19" display="https://leetcode.cn/problems/non-negative-integers-without-consecutive-ones/solution/shu-wei-dp-by-man-qian-shu-xiao-ming-felv/"/>
+    <hyperlink ref="B86" r:id="rId20" display="6159. 删除操作后的最大子段和" tooltip="https://leetcode.cn/problems/maximum-segment-sum-after-removals/"/>
+    <hyperlink ref="B87" r:id="rId21" display="2334. 元素值大于变化阈值的子数组" tooltip="https://leetcode.cn/problems/subarray-with-elements-greater-than-varying-threshold/"/>
+    <hyperlink ref="B88" r:id="rId22" display="2213. 由单个字符重复的最长子字符串" tooltip="https://leetcode.cn/problems/longest-substring-of-one-repeating-character/"/>
+    <hyperlink ref="B89" r:id="rId23" display="洛谷 P4513 小白逛公园" tooltip="https://leetcode.cn/link/?target=https://www.luogu.com.cn/problem/P4513"/>
+    <hyperlink ref="D86" r:id="rId24" display="https://leetcode.cn/problems/maximum-segment-sum-after-removals/solution/si-wei-bingcha-by-man-qian-shu-xiao-ming-q1c4/"/>
+    <hyperlink ref="B95" r:id="rId25" display="2386. 找出数组的第 K 大和" tooltip="https://leetcode.cn/problems/find-the-k-sum-of-an-array/"/>
+    <hyperlink ref="B97" r:id="rId26" display="646. 最长数对链" tooltip="https://leetcode.cn/problems/maximum-length-of-pair-chain/"/>
+    <hyperlink ref="B98" r:id="rId27" display="354. 俄罗斯套娃信封问题" tooltip="https://leetcode.cn/problems/russian-doll-envelopes/"/>
+    <hyperlink ref="D100" r:id="rId28" display="https://leetcode.cn/problems/count-unique-characters-of-all-substrings-of-a-given-string/solution/tong-ji-by-man-qian-shu-xiao-ming-70jt/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/算法总结/题目索引.xlsx
+++ b/算法总结/题目索引.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22400" windowHeight="11190"/>
+    <workbookView windowWidth="22400" windowHeight="10210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="252">
   <si>
     <t>做题时间</t>
   </si>
@@ -848,15 +848,27 @@
   <si>
     <t>注意闭区间怎么统计</t>
   </si>
+  <si>
+    <t>1888. 使二进制变成交替的最小操作次数</t>
+  </si>
+  <si>
+    <t>性质 + 滑动窗口。 两次遍历</t>
+  </si>
+  <si>
+    <t>https://leetcode.cn/problems/minimum-number-of-flips-to-make-the-binary-string-alternating/solution/s-by-man-qian-shu-xiao-ming-5v3o/</t>
+  </si>
+  <si>
+    <t>1. 最多n次1操作，总会取得最小的2操作。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
@@ -946,15 +958,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -983,14 +1001,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1003,31 +1030,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1049,6 +1054,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1065,9 +1078,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1090,7 +1102,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,7 +1126,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,49 +1234,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1168,19 +1246,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1198,79 +1270,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1286,10 +1298,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1298,8 +1308,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1321,24 +1361,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1348,21 +1375,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1389,10 +1401,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1401,16 +1413,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1422,112 +1434,112 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1940,10 +1952,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" topLeftCell="B88" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -3578,6 +3590,20 @@
         <v>247</v>
       </c>
     </row>
+    <row r="101" spans="2:5">
+      <c r="B101" t="s">
+        <v>248</v>
+      </c>
+      <c r="C101" t="s">
+        <v>249</v>
+      </c>
+      <c r="D101" t="s">
+        <v>250</v>
+      </c>
+      <c r="E101" t="s">
+        <v>251</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D18" r:id="rId1" display="https://leetcode.cn/problems/unique-paths/"/>
